--- a/Bibliografia/MS/Lista de CSAP.xlsx
+++ b/Bibliografia/MS/Lista de CSAP.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/Atuação Profissional Psicologia/9. Senado Federal/R/icsap/Bbliografia/MS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -943,8 +952,8 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Bibliografia/MS/Lista de CSAP.xlsx
+++ b/Bibliografia/MS/Lista de CSAP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0EAD68E2-ED3A-4C09-9971-15039CD45BA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORRESP" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="318">
   <si>
     <t>LISTA DE CONDIÇÕES SENSÍVEIS À ATENÇÃO PRIMÁRIA</t>
   </si>
@@ -532,13 +533,469 @@
   </si>
   <si>
     <t>Com complicações (renais, oftalmicas, neurol., circulat., periféricas, múltiplas, outras e NE)</t>
+  </si>
+  <si>
+    <t>J15.9</t>
+  </si>
+  <si>
+    <t>J15.8</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>I01</t>
+  </si>
+  <si>
+    <t>I02</t>
+  </si>
+  <si>
+    <t>I00</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>J15.4</t>
+  </si>
+  <si>
+    <t>J15.3</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>E42</t>
+  </si>
+  <si>
+    <t>E43</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>E54</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>E60</t>
+  </si>
+  <si>
+    <t>E61</t>
+  </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>E63</t>
+  </si>
+  <si>
+    <t>E64</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>E14.9</t>
+  </si>
+  <si>
+    <t>E13.9</t>
+  </si>
+  <si>
+    <t>E12.9</t>
+  </si>
+  <si>
+    <t>E11.9</t>
+  </si>
+  <si>
+    <t>E10.9</t>
+  </si>
+  <si>
+    <t>E14.1</t>
+  </si>
+  <si>
+    <t>E14.0</t>
+  </si>
+  <si>
+    <t>E13.1</t>
+  </si>
+  <si>
+    <t>E13.0</t>
+  </si>
+  <si>
+    <t>E12.1</t>
+  </si>
+  <si>
+    <t>E12.0</t>
+  </si>
+  <si>
+    <t>E11.1</t>
+  </si>
+  <si>
+    <t>E11.0</t>
+  </si>
+  <si>
+    <t>E10.1</t>
+  </si>
+  <si>
+    <t>E10.0</t>
+  </si>
+  <si>
+    <t>I63</t>
+  </si>
+  <si>
+    <t>I64</t>
+  </si>
+  <si>
+    <t>I65</t>
+  </si>
+  <si>
+    <t>I66</t>
+  </si>
+  <si>
+    <t>I67</t>
+  </si>
+  <si>
+    <t>I69</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>K25</t>
+  </si>
+  <si>
+    <t>K26</t>
+  </si>
+  <si>
+    <t>K27</t>
+  </si>
+  <si>
+    <t>K28</t>
+  </si>
+  <si>
+    <t>K92.2</t>
+  </si>
+  <si>
+    <t>K92.1</t>
+  </si>
+  <si>
+    <t>K92.0</t>
+  </si>
+  <si>
+    <t>E10.2</t>
+  </si>
+  <si>
+    <t>E10.3</t>
+  </si>
+  <si>
+    <t>E10.4</t>
+  </si>
+  <si>
+    <t>E10.5</t>
+  </si>
+  <si>
+    <t>E10.6</t>
+  </si>
+  <si>
+    <t>E10.7</t>
+  </si>
+  <si>
+    <t>E10.8</t>
+  </si>
+  <si>
+    <t>E11.2</t>
+  </si>
+  <si>
+    <t>E11.3</t>
+  </si>
+  <si>
+    <t>E11.4</t>
+  </si>
+  <si>
+    <t>E11.5</t>
+  </si>
+  <si>
+    <t>E11.6</t>
+  </si>
+  <si>
+    <t>E11.7</t>
+  </si>
+  <si>
+    <t>E11.8</t>
+  </si>
+  <si>
+    <t>E12.2</t>
+  </si>
+  <si>
+    <t>E13.3</t>
+  </si>
+  <si>
+    <t>E14.4</t>
+  </si>
+  <si>
+    <t>E12.3</t>
+  </si>
+  <si>
+    <t>E12.4</t>
+  </si>
+  <si>
+    <t>E12.5</t>
+  </si>
+  <si>
+    <t>E12.6</t>
+  </si>
+  <si>
+    <t>E12.7</t>
+  </si>
+  <si>
+    <t>E12.8</t>
+  </si>
+  <si>
+    <t>E13.2</t>
+  </si>
+  <si>
+    <t>E13.4</t>
+  </si>
+  <si>
+    <t>E13.5</t>
+  </si>
+  <si>
+    <t>E13.6</t>
+  </si>
+  <si>
+    <t>E13.7</t>
+  </si>
+  <si>
+    <t>E13.8</t>
+  </si>
+  <si>
+    <t>E14.2</t>
+  </si>
+  <si>
+    <t>E14.3</t>
+  </si>
+  <si>
+    <t>E14.5</t>
+  </si>
+  <si>
+    <t>E14.6</t>
+  </si>
+  <si>
+    <t>E14.7</t>
+  </si>
+  <si>
+    <t>E14.8</t>
+  </si>
+  <si>
+    <t>A15.0</t>
+  </si>
+  <si>
+    <t>A15.1</t>
+  </si>
+  <si>
+    <t>A15.2</t>
+  </si>
+  <si>
+    <t>A15.3</t>
+  </si>
+  <si>
+    <t>A16.0</t>
+  </si>
+  <si>
+    <t>A16.1</t>
+  </si>
+  <si>
+    <t>A16.2</t>
+  </si>
+  <si>
+    <t>A16.3</t>
+  </si>
+  <si>
+    <t>A15.4</t>
+  </si>
+  <si>
+    <t>A15.5</t>
+  </si>
+  <si>
+    <t>A15.6</t>
+  </si>
+  <si>
+    <t>A15.7</t>
+  </si>
+  <si>
+    <t>A15.8</t>
+  </si>
+  <si>
+    <t>A15.9</t>
+  </si>
+  <si>
+    <t>A16.4</t>
+  </si>
+  <si>
+    <t>A16.5</t>
+  </si>
+  <si>
+    <t>A16.6</t>
+  </si>
+  <si>
+    <t>A16.7</t>
+  </si>
+  <si>
+    <t>A16.8</t>
+  </si>
+  <si>
+    <t>A16.9</t>
+  </si>
+  <si>
+    <t>A17.1</t>
+  </si>
+  <si>
+    <t>A17.2</t>
+  </si>
+  <si>
+    <t>A17.3</t>
+  </si>
+  <si>
+    <t>A17.4</t>
+  </si>
+  <si>
+    <t>A17.5</t>
+  </si>
+  <si>
+    <t>A17.6</t>
+  </si>
+  <si>
+    <t>A17.7</t>
+  </si>
+  <si>
+    <t>A17.8</t>
+  </si>
+  <si>
+    <t>A17.9</t>
+  </si>
+  <si>
+    <t>Portaria MS</t>
+  </si>
+  <si>
+    <t>1992 - 1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,8 +1022,38 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +1066,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -617,11 +1110,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +1177,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1706,4 +2231,1271 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EDAFE-729D-4F9E-891E-2D1E01B54B46}">
+  <dimension ref="A1:B207"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" s="21"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="21"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="21"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="21"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="21"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="21"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="21"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="21"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="21"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="21"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="21"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="21"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="21"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="21"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="21"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="21"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="21"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" s="21"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112" s="21"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" s="21"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B114" s="21"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="21"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="21"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="21"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="21"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="21"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="21"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" s="21"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="21"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="21"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="21"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" s="21"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="21"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="21"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="21"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133" s="21"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B134" s="21"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135" s="21"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136" s="21"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137" s="21"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="21"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="21"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" s="21"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B141" s="21"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" s="21"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" s="21"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="21"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B145" s="21"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="21"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" s="21"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="21"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="21"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="21"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B151" s="21"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="21"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="21"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="21"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="21"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" s="21"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B157" s="21"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="21"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="21"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" s="21"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="21"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B162" s="21"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163" s="21"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164" s="21"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="21"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B166" s="21"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="21"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="21"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B169" s="21"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="21"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="21"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" s="21"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B173" s="21"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="21"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175" s="21"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" s="21"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" s="21"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" s="21"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B179" s="21"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" s="21"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B181" s="21"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B182" s="21"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B183" s="21"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B184" s="21"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B185" s="21"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B186" s="21"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="21"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B188" s="21"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" s="21"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="21"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B191" s="21"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="21"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B193" s="21"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" s="21"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B195" s="21"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" s="21"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" s="21"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" s="21"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199" s="21"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B200" s="21"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B201" s="21"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B202" s="21"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B203" s="21"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B204" s="21"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="21"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B206" s="21"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B207" s="21"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A207">
+    <sortCondition ref="A2:A207"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Bibliografia/MS/Lista de CSAP.xlsx
+++ b/Bibliografia/MS/Lista de CSAP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="311" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0EAD68E2-ED3A-4C09-9971-15039CD45BA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1165,18 +1165,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1194,6 +1182,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1490,11 +1490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
@@ -1734,7 +1734,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="9" t="s">
         <v>65</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="3" t="s">
         <v>74</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="9" t="s">
         <v>76</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="3" t="s">
         <v>83</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="3" t="s">
         <v>85</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="9" t="s">
         <v>93</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="9" t="s">
         <v>98</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -1944,7 +1944,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="9" t="s">
         <v>105</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="3" t="s">
         <v>165</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="9" t="s">
         <v>113</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="3" t="s">
         <v>120</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="3" t="s">
         <v>126</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="9" t="s">
         <v>128</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="3" t="s">
         <v>133</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="3" t="s">
         <v>137</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="3" t="s">
         <v>139</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="9" t="s">
         <v>141</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="3" t="s">
         <v>146</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="3" t="s">
         <v>148</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="3" t="s">
         <v>150</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="9" t="s">
         <v>154</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="3" t="s">
         <v>161</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="9" t="s">
         <v>163</v>
       </c>
@@ -2237,1260 +2237,1260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EDAFE-729D-4F9E-891E-2D1E01B54B46}">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="17"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="21"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="17"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="21"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="17"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="17"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="17"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="21"/>
+      <c r="B89" s="17"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="17"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="17"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="21"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="17"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="17"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B97" s="21"/>
+      <c r="B97" s="17"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="21"/>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="21"/>
+      <c r="B99" s="17"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="17"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B102" s="21"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B103" s="21"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="21"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B106" s="21"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="21"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="B108" s="21"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B109" s="21"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B110" s="21"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B111" s="21"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="21"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="21"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B121" s="21"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B124" s="21"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B126" s="21"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="21"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B128" s="21"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B129" s="21"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="21"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B131" s="21"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="21"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="21"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="21"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="21"/>
+      <c r="B135" s="17"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B136" s="21"/>
+      <c r="B136" s="17"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B137" s="21"/>
+      <c r="B137" s="17"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B138" s="21"/>
+      <c r="B138" s="17"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="21"/>
+      <c r="B139" s="17"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="21"/>
+      <c r="B140" s="17"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B141" s="21"/>
+      <c r="B141" s="17"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B142" s="21"/>
+      <c r="B142" s="17"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B143" s="21"/>
+      <c r="B143" s="17"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B144" s="21"/>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="17"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B146" s="21"/>
+      <c r="B146" s="17"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B147" s="21"/>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B148" s="21"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B149" s="21"/>
+      <c r="B149" s="17"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="21"/>
+      <c r="B150" s="17"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
+      <c r="A151" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="21"/>
+      <c r="B151" s="17"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="23" t="s">
+      <c r="A152" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B152" s="21"/>
+      <c r="B152" s="17"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B153" s="21"/>
+      <c r="B153" s="17"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B154" s="21"/>
+      <c r="B154" s="17"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B155" s="21"/>
+      <c r="B155" s="17"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
+      <c r="A156" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B156" s="21"/>
+      <c r="B156" s="17"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B157" s="21"/>
+      <c r="B157" s="17"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
+      <c r="A158" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B158" s="21"/>
+      <c r="B158" s="17"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B159" s="21"/>
+      <c r="B159" s="17"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B160" s="21"/>
+      <c r="B160" s="17"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B161" s="21"/>
+      <c r="B161" s="17"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B162" s="21"/>
+      <c r="B162" s="17"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B163" s="21"/>
+      <c r="B163" s="17"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="21"/>
+      <c r="B164" s="17"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="21"/>
+      <c r="B165" s="17"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="22" t="s">
+      <c r="A166" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B166" s="21"/>
+      <c r="B166" s="17"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="21"/>
+      <c r="B167" s="17"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="21"/>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B169" s="21"/>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="21"/>
+      <c r="B170" s="17"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="22" t="s">
+      <c r="A171" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="21"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B172" s="21"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B173" s="21"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B174" s="21"/>
+      <c r="B174" s="17"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="21"/>
+      <c r="B175" s="17"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B176" s="21"/>
+      <c r="B176" s="17"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B177" s="21"/>
+      <c r="B177" s="17"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B178" s="21"/>
+      <c r="B178" s="17"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="21"/>
+      <c r="B179" s="17"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B180" s="21"/>
+      <c r="B180" s="17"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B181" s="21"/>
+      <c r="B181" s="17"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B182" s="21"/>
+      <c r="B182" s="17"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B183" s="21"/>
+      <c r="B183" s="17"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B184" s="21"/>
+      <c r="B184" s="17"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B185" s="21"/>
+      <c r="B185" s="17"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="23" t="s">
+      <c r="A186" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B186" s="21"/>
+      <c r="B186" s="17"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B187" s="21"/>
+      <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B188" s="21"/>
+      <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B189" s="21"/>
+      <c r="B189" s="17"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="20" t="s">
+      <c r="A190" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B190" s="21"/>
+      <c r="B190" s="17"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B191" s="21"/>
+      <c r="B191" s="17"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B192" s="21"/>
+      <c r="B192" s="17"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B193" s="21"/>
+      <c r="B193" s="17"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B194" s="21"/>
+      <c r="B194" s="17"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="20" t="s">
+      <c r="A195" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B195" s="21"/>
+      <c r="B195" s="17"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B196" s="21"/>
+      <c r="B196" s="17"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B197" s="21"/>
+      <c r="B197" s="17"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B198" s="21"/>
+      <c r="B198" s="17"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B199" s="21"/>
+      <c r="B199" s="17"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B200" s="21"/>
+      <c r="B200" s="17"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B201" s="21"/>
+      <c r="B201" s="17"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B202" s="21"/>
+      <c r="B202" s="17"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="20" t="s">
+      <c r="A203" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B203" s="21"/>
+      <c r="B203" s="17"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="20" t="s">
+      <c r="A204" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B204" s="21"/>
+      <c r="B204" s="17"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
+      <c r="A205" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B205" s="21"/>
+      <c r="B205" s="17"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B206" s="21"/>
+      <c r="B206" s="17"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="20" t="s">
+      <c r="A207" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B207" s="21"/>
+      <c r="B207" s="17"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A207">

--- a/Bibliografia/MS/Lista de CSAP.xlsx
+++ b/Bibliografia/MS/Lista de CSAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0EAD68E2-ED3A-4C09-9971-15039CD45BA7}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_FB52EA33A9503895B47D68A18B6C5A6365C60DC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD296E62-3CAF-4376-90C1-FF2DE3AE6987}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="336">
   <si>
     <t>LISTA DE CONDIÇÕES SENSÍVEIS À ATENÇÃO PRIMÁRIA</t>
   </si>
@@ -989,6 +989,60 @@
   </si>
   <si>
     <t>1992 - 1997</t>
+  </si>
+  <si>
+    <t>CID 9</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>0702, 0703</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>390, 391</t>
+  </si>
+  <si>
+    <t>090 a 099</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>1270</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,6 +1236,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,11 +1534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,17 +1546,18 @@
     <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1506,9 +1567,12 @@
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1517,153 +1581,204 @@
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="D4" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="D5" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="D6" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="D7" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="D8" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="D9" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="D10" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="D11" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="D12" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="D13" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="D14" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="D15" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="D16" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="D17" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="D18" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="D19" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1673,8 +1788,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -1693,8 +1808,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1704,8 +1819,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -1713,8 +1828,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1724,8 +1839,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
@@ -1733,8 +1848,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
@@ -1742,8 +1857,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1751,8 +1866,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1760,8 +1875,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1769,8 +1884,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
       <c r="B31" s="9" t="s">
         <v>65</v>
       </c>
@@ -1778,8 +1893,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1790,7 +1905,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
@@ -1799,7 +1914,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
@@ -1808,7 +1923,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>74</v>
       </c>
@@ -1817,7 +1932,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="9" t="s">
         <v>76</v>
       </c>
@@ -1837,7 +1952,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -1848,7 +1963,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="3" t="s">
         <v>83</v>
       </c>
@@ -1857,7 +1972,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="3" t="s">
         <v>85</v>
       </c>
@@ -1866,7 +1981,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
@@ -1875,7 +1990,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
@@ -1884,7 +1999,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1893,7 +2008,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="9" t="s">
         <v>93</v>
       </c>
@@ -1902,7 +2017,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -1913,7 +2028,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="9" t="s">
         <v>98</v>
       </c>
@@ -1933,7 +2048,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -1944,7 +2059,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="9" t="s">
         <v>105</v>
       </c>
@@ -1964,7 +2079,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1975,7 +2090,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="3" t="s">
         <v>165</v>
       </c>
@@ -1984,7 +2099,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="9" t="s">
         <v>113</v>
       </c>
@@ -2004,7 +2119,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2015,7 +2130,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="3" t="s">
         <v>120</v>
       </c>
@@ -2024,7 +2139,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
@@ -2033,7 +2148,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
@@ -2042,7 +2157,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3" t="s">
         <v>126</v>
       </c>
@@ -2051,7 +2166,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
         <v>128</v>
       </c>
@@ -2060,7 +2175,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -2071,7 +2186,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3" t="s">
         <v>133</v>
       </c>
@@ -2080,7 +2195,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
@@ -2089,7 +2204,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="3" t="s">
         <v>137</v>
       </c>
@@ -2098,7 +2213,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
         <v>139</v>
       </c>
@@ -2107,7 +2222,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="9" t="s">
         <v>141</v>
       </c>
@@ -2116,7 +2231,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="23" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -2127,7 +2242,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
         <v>146</v>
       </c>
@@ -2136,7 +2251,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="3" t="s">
         <v>148</v>
       </c>
@@ -2145,7 +2260,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="3" t="s">
         <v>150</v>
       </c>
@@ -2154,7 +2269,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
@@ -2163,7 +2278,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="9" t="s">
         <v>154</v>
       </c>
@@ -2183,7 +2298,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="23" t="s">
         <v>158</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -2194,7 +2309,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="3" t="s">
         <v>161</v>
       </c>
@@ -2203,7 +2318,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="9" t="s">
         <v>163</v>
       </c>
@@ -2230,6 +2345,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
